--- a/papier/New_analyses_graphiques/Priv3-detailed-NoG.xlsx
+++ b/papier/New_analyses_graphiques/Priv3-detailed-NoG.xlsx
@@ -2955,49 +2955,9 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:hPercent val="60"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3042,7 +3002,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3085,7 +3044,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3128,7 +3086,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3171,7 +3128,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3214,7 +3170,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3257,7 +3212,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -3282,7 +3236,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3304,7 +3258,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3381,12 +3336,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>Feuil1!$E$928</c15:sqref>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
+              <c15:categoryFilterExceptions/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3400,7 +3350,8 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="0"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3429,7 +3380,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4023,7 +3974,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4034,7 +3985,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307286" cy="6077857"/>
+    <xdr:ext cx="9294725" cy="6070879"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
